--- a/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,85</t>
+          <t>-4,09; 5,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 1,7</t>
+          <t>-6,42; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,0</t>
+          <t>-9,18; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>0,0; 5,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,83</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,18</t>
+          <t>-1,14; 4,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,01</t>
+          <t>-2,1; 2,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,0</t>
+          <t>-3,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,87</t>
+          <t>0,61; 2,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,94</t>
+          <t>0,14; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,27</t>
+          <t>0,27; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,62</t>
+          <t>0,97; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,79</t>
+          <t>0,15; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,65</t>
+          <t>1,08; 3,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,79</t>
+          <t>0,96; 2,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,51</t>
+          <t>0,23; 1,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,47</t>
+          <t>0,82; 2,53</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,87; —</t>
+          <t>34,21; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-70,42; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-89,05; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>188,12; 41119355,18</t>
+          <t>122,58; 26133061,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,18; 20153354,28</t>
+          <t>-14,56; 13975290,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>151,15; 33480892,72</t>
+          <t>95,06; 30451408,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,14</t>
+          <t>-1,28; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,28</t>
+          <t>-1,8; 0,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,82</t>
+          <t>-0,95; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,91</t>
+          <t>-1,14; 1,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,75</t>
+          <t>-1,32; 0,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,06</t>
+          <t>-1,02; 1,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,67</t>
+          <t>-0,89; 0,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,21</t>
+          <t>-1,3; 0,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,98</t>
+          <t>-0,59; 1,04</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,49; 128,93</t>
+          <t>-64,75; 109,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,14; 50,5</t>
+          <t>-85,93; 19,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 189,16</t>
+          <t>-49,29; 156,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 97,6</t>
+          <t>-53,84; 111,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 78,97</t>
+          <t>-63,65; 104,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,64; 117,83</t>
+          <t>-48,41; 125,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-45,57; 62,52</t>
+          <t>-46,87; 76,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 23,54</t>
+          <t>-66,52; 27,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 87,33</t>
+          <t>-32,7; 92,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,06</t>
+          <t>-3,1; 0,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,47</t>
+          <t>-2,83; 0,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,39</t>
+          <t>-2,47; 1,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -0,56</t>
+          <t>-3,28; -0,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,1</t>
+          <t>-2,96; 0,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,21</t>
+          <t>-2,24; 1,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -0,62</t>
+          <t>-2,77; -0,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,1</t>
+          <t>-2,38; -0,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,79</t>
+          <t>-1,71; 0,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-80,18; 7,73</t>
+          <t>-78,01; 16,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-76,3; 33,3</t>
+          <t>-74,89; 50,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,91; 73,86</t>
+          <t>-66,84; 99,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,07; -22,0</t>
+          <t>-89,47; -16,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,41; 16,45</t>
+          <t>-78,88; 13,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 68,28</t>
+          <t>-61,75; 78,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,73; -26,62</t>
+          <t>-78,12; -26,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-69,89; -3,31</t>
+          <t>-69,92; -6,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 43,28</t>
+          <t>-52,45; 34,84</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; -0,43</t>
+          <t>-2,55; -0,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; -0,55</t>
+          <t>-2,66; -0,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,92</t>
+          <t>-1,57; 0,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,99</t>
+          <t>-1,38; 0,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; -0,41</t>
+          <t>-2,44; -0,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; -0,67</t>
+          <t>-2,6; -0,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,03</t>
+          <t>-1,57; 0,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,75</t>
+          <t>-2,27; -0,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; -0,22</t>
+          <t>-1,89; -0,24</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-87,38; -19,05</t>
+          <t>-88,06; -17,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,73; -30,15</t>
+          <t>-90,96; -33,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 70,38</t>
+          <t>-58,94; 69,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 68,2</t>
+          <t>-47,2; 67,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-85,0; -15,51</t>
+          <t>-82,63; -9,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,87; -38,65</t>
+          <t>-87,72; -37,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-61,99; 3,42</t>
+          <t>-59,45; 3,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-81,79; -37,16</t>
+          <t>-82,04; -40,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,38; -11,1</t>
+          <t>-69,82; -8,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 0,2</t>
+          <t>-1,01; 0,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,22</t>
+          <t>-1,33; -0,18</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,8</t>
+          <t>-0,62; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,54</t>
+          <t>-0,76; 0,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; -0,04</t>
+          <t>-1,15; 0,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,35</t>
+          <t>-0,8; 0,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,27</t>
+          <t>-0,68; 0,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,05; -0,23</t>
+          <t>-1,09; -0,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,38</t>
+          <t>-0,52; 0,39</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 16,39</t>
+          <t>-50,15; 20,13</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-66,1; -15,21</t>
+          <t>-66,06; -10,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 57,05</t>
+          <t>-32,56; 58,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 39,13</t>
+          <t>-35,85; 38,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-57,08; -2,02</t>
+          <t>-56,04; 2,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,18; 26,47</t>
+          <t>-39,47; 28,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 18,78</t>
+          <t>-36,7; 13,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-54,85; -16,33</t>
+          <t>-56,97; -17,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 27,13</t>
+          <t>-28,01; 26,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,27 +685,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,74</t>
+          <t>-4,74; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,7</t>
+          <t>-6,64; 1,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 0,0</t>
+          <t>-7,25; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,37</t>
+          <t>-0,83; 4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,07</t>
+          <t>-2,04; 2,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,0</t>
+          <t>-4,08; 0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,84</t>
+          <t>0,56; 2,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,86</t>
+          <t>0,03; 1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,43</t>
+          <t>0,24; 2,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,68</t>
+          <t>0,86; 3,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,93</t>
+          <t>0,15; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,68</t>
+          <t>0,99; 3,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,73</t>
+          <t>1,02; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,45</t>
+          <t>0,26; 1,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,53</t>
+          <t>0,9; 2,45</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,21; —</t>
+          <t>-35,53; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,42; —</t>
+          <t>-64,04; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>122,58; 26133061,86</t>
+          <t>172,74; 34771281,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 13975290,5</t>
+          <t>-0,72; 20456685,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,06; 30451408,98</t>
+          <t>137,41; 36949120,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,0</t>
+          <t>-1,13; 1,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,11</t>
+          <t>-1,75; 0,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 1,65</t>
+          <t>-0,9; 1,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,04</t>
+          <t>-1,07; 1,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,81</t>
+          <t>-1,48; 0,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,21</t>
+          <t>-0,99; 1,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 0,75</t>
+          <t>-0,77; 0,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,23</t>
+          <t>-1,22; 0,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,04</t>
+          <t>-0,61; 1,11</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 109,03</t>
+          <t>-59,79; 117,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,93; 19,65</t>
+          <t>-84,7; 29,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 156,01</t>
+          <t>-48,02; 179,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 111,69</t>
+          <t>-54,11; 110,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,65; 104,06</t>
+          <t>-65,76; 79,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 125,36</t>
+          <t>-48,72; 152,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 76,12</t>
+          <t>-42,59; 69,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 27,76</t>
+          <t>-65,85; 23,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 92,69</t>
+          <t>-33,85; 100,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,11</t>
+          <t>-3,11; -0,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 0,67</t>
+          <t>-3,0; 0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,45</t>
+          <t>-2,39; 1,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; -0,43</t>
+          <t>-3,32; -0,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,14</t>
+          <t>-2,79; 0,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,22</t>
+          <t>-2,25; 1,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,61</t>
+          <t>-2,73; -0,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,14</t>
+          <t>-2,37; -0,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,71</t>
+          <t>-1,86; 0,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-78,01; 16,17</t>
+          <t>-79,53; 3,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 50,29</t>
+          <t>-77,04; 32,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,84; 99,55</t>
+          <t>-66,29; 89,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-89,47; -16,64</t>
+          <t>-91,59; -25,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 13,9</t>
+          <t>-78,56; 14,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,75; 78,04</t>
+          <t>-64,37; 81,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,12; -26,78</t>
+          <t>-78,23; -25,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-69,92; -6,36</t>
+          <t>-70,15; -3,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 34,84</t>
+          <t>-56,0; 32,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,44</t>
+          <t>-2,55; -0,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; -0,56</t>
+          <t>-2,61; -0,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,93</t>
+          <t>-1,63; 1,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,98</t>
+          <t>-1,56; 1,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; -0,26</t>
+          <t>-2,55; -0,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; -0,65</t>
+          <t>-2,78; -0,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,04</t>
+          <t>-1,61; 0,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; -0,7</t>
+          <t>-2,19; -0,77</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; -0,24</t>
+          <t>-1,82; -0,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-88,06; -17,04</t>
+          <t>-86,41; -14,04</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-90,96; -33,75</t>
+          <t>-89,25; -26,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 69,77</t>
+          <t>-58,5; 89,44</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 67,21</t>
+          <t>-50,93; 65,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-82,63; -9,72</t>
+          <t>-84,27; -15,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,72; -37,48</t>
+          <t>-88,84; -39,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-59,45; 3,87</t>
+          <t>-60,81; 4,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-82,04; -40,07</t>
+          <t>-82,01; -42,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -8,87</t>
+          <t>-66,66; -11,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,24</t>
+          <t>-1,03; 0,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; -0,18</t>
+          <t>-1,44; -0,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,76</t>
+          <t>-0,66; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,51</t>
+          <t>-0,7; 0,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,01</t>
+          <t>-1,06; 0,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,4</t>
+          <t>-0,75; 0,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,17</t>
+          <t>-0,67; 0,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,09; -0,25</t>
+          <t>-1,08; -0,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,39</t>
+          <t>-0,53; 0,36</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 20,13</t>
+          <t>-50,63; 19,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-66,06; -10,99</t>
+          <t>-68,28; -11,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 58,13</t>
+          <t>-34,07; 54,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 38,65</t>
+          <t>-34,88; 40,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 2,1</t>
+          <t>-54,82; 3,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 28,73</t>
+          <t>-37,82; 31,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 13,44</t>
+          <t>-34,16; 15,21</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-56,97; -17,11</t>
+          <t>-55,67; -18,33</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 26,96</t>
+          <t>-27,46; 25,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,34</t>
+          <t>0,51; 2,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,67</t>
+          <t>-0,32; 1,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 0,0</t>
+          <t>-0,3; 1,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>0,95; 3,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,56</t>
+          <t>0,24; 1,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 2,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,54</t>
+          <t>0,99; 2,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,1</t>
+          <t>0,18; 1,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,0</t>
+          <t>0,51; 1,97</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>78,37%</t>
+          <t>362,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-47,68%</t>
+          <t>125,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>154,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1375,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>676,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1245,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>188,03%</t>
+          <t>620,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>265,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>437,97%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-33,93; 17225318,34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-87,97; 11028743,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,45; 2914,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 1478,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,43; 2156,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,89</t>
+          <t>-1,13; 1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,96</t>
+          <t>-1,75; 0,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,47</t>
+          <t>-1,18; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,69</t>
+          <t>-1,07; 1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,97</t>
+          <t>-1,48; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,51</t>
+          <t>-1,0; 1,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,87</t>
+          <t>-0,77; 0,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,49</t>
+          <t>-1,22; 0,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,45</t>
+          <t>-0,75; 1,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>930,79%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>469,37%</t>
+          <t>-50,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>644,6%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1160,42%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>489,68%</t>
+          <t>-19,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1226,69%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1046,75%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>479,65%</t>
+          <t>-34,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>950,71%</t>
+          <t>5,68%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,53; —</t>
+          <t>-59,79; 117,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,7; 29,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,04; —</t>
+          <t>-60,2; 148,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,11; 110,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,76; 79,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,34; 154,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>172,74; 34771281,1</t>
+          <t>-42,59; 69,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 20456685,42</t>
+          <t>-65,85; 23,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>137,41; 36949120,16</t>
+          <t>-39,26; 92,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,01</t>
+          <t>-3,11; -0,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,22</t>
+          <t>-3,0; 0,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,56</t>
+          <t>-2,4; 1,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,04</t>
+          <t>-3,32; -0,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,74</t>
+          <t>-2,79; 0,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,32</t>
+          <t>-2,85; 0,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,74</t>
+          <t>-2,73; -0,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,2</t>
+          <t>-2,37; -0,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,11</t>
+          <t>-2,08; 0,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-50,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-50,49%</t>
+          <t>-42,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>-23,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-69,45%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,41%</t>
+          <t>-48,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>-31,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,71%</t>
+          <t>-59,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,27%</t>
+          <t>-45,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>-27,92%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 117,25</t>
+          <t>-79,53; 3,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 29,78</t>
+          <t>-77,04; 32,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 179,63</t>
+          <t>-66,8; 88,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 110,79</t>
+          <t>-91,59; -25,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 79,51</t>
+          <t>-78,56; 14,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 152,12</t>
+          <t>-75,33; 40,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 69,61</t>
+          <t>-78,23; -25,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,85; 23,2</t>
+          <t>-70,15; -3,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,85; 100,91</t>
+          <t>-61,45; 20,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-1,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,03</t>
+          <t>-2,55; -0,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,43</t>
+          <t>-2,61; -0,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,44</t>
+          <t>-1,68; 1,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,57</t>
+          <t>-1,56; 1,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,13</t>
+          <t>-2,55; -0,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,24</t>
+          <t>-2,8; -0,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; -0,63</t>
+          <t>-1,61; 0,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,12</t>
+          <t>-2,19; -0,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,65</t>
+          <t>-1,84; -0,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-50,62%</t>
+          <t>-65,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-42,22%</t>
+          <t>-72,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,25%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-69,45%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
+          <t>-60,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>-73,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-59,76%</t>
+          <t>-35,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-45,5%</t>
+          <t>-65,93%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-49,13%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 3,12</t>
+          <t>-86,41; -14,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,04; 32,2</t>
+          <t>-89,25; -26,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 89,71</t>
+          <t>-60,33; 77,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-91,59; -25,81</t>
+          <t>-50,93; 65,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 14,85</t>
+          <t>-84,27; -15,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 81,14</t>
+          <t>-88,95; -37,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,23; -25,8</t>
+          <t>-60,81; 4,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-70,15; -3,63</t>
+          <t>-82,01; -42,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 32,22</t>
+          <t>-68,4; -14,15</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,31</t>
+          <t>-1,03; 0,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; -0,55</t>
+          <t>-1,44; -0,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,09</t>
+          <t>-0,8; 0,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,05</t>
+          <t>-0,7; 0,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,34</t>
+          <t>-1,06; 0,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,7</t>
+          <t>-0,84; 0,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,06</t>
+          <t>-0,67; 0,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; -0,77</t>
+          <t>-1,08; -0,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,82; -0,25</t>
+          <t>-0,6; 0,32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-65,73%</t>
+          <t>-23,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-72,78%</t>
+          <t>-45,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>-4,48%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-60,19%</t>
+          <t>-32,8%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-71,99%</t>
+          <t>-15,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-35,01%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>-39,15%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>-10,41%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,41; -14,04</t>
+          <t>-50,63; 19,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-89,25; -26,63</t>
+          <t>-68,28; -11,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,5; 89,44</t>
+          <t>-40,87; 45,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 65,57</t>
+          <t>-34,88; 40,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-84,27; -15,94</t>
+          <t>-54,82; 3,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,84; -39,15</t>
+          <t>-42,29; 26,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 4,84</t>
+          <t>-34,16; 15,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-82,01; -42,02</t>
+          <t>-55,67; -18,33</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-66,66; -11,12</t>
+          <t>-31,53; 20,27</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 0,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; -0,16</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 0,76</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 0,54</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 0,05</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 0,41</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 0,22</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; -0,28</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 0,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-23,24%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-45,74%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-4,48%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-32,8%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-12,24%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-13,74%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-39,15%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-5,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-50,63; 19,67</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-68,28; -11,51</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-34,07; 54,55</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-34,88; 40,05</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-54,82; 3,57</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-37,82; 31,86</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-34,16; 15,21</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-55,67; -18,33</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-27,46; 25,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,82</t>
+          <t>0,39; 2,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,64</t>
+          <t>-0,4; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,7</t>
+          <t>-0,3; 1,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,32</t>
+          <t>0,93; 3,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,79</t>
+          <t>0,36; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,94</t>
+          <t>0,84; 3,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,64</t>
+          <t>1,02; 2,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,37</t>
+          <t>0,18; 1,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,97</t>
+          <t>0,53; 2,1</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 17225318,34</t>
+          <t>-14,46; 17178755,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-86,7; 11741273,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-85,26; 8530676,42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-87,97; 11028743,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,45; 2914,1</t>
+          <t>110,41; 3191,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1478,66</t>
+          <t>-12,71; 1675,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,43; 2156,35</t>
+          <t>41,05; 2322,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,01</t>
+          <t>-1,16; 1,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,22</t>
+          <t>-1,82; 0,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,38</t>
+          <t>-1,16; 1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,04</t>
+          <t>-1,15; 1,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 0,74</t>
+          <t>-1,37; 0,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,35</t>
+          <t>-1,08; 1,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,74</t>
+          <t>-0,88; 0,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,2</t>
+          <t>-1,23; 0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,02</t>
+          <t>-0,77; 0,99</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 117,25</t>
+          <t>-61,79; 121,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 29,78</t>
+          <t>-85,73; 24,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 148,48</t>
+          <t>-59,56; 154,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 110,79</t>
+          <t>-56,34; 120,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 79,51</t>
+          <t>-65,46; 81,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 154,21</t>
+          <t>-50,82; 122,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,59; 69,61</t>
+          <t>-45,55; 71,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,85; 23,2</t>
+          <t>-64,67; 25,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 92,58</t>
+          <t>-39,89; 85,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; -0,03</t>
+          <t>-3,17; 0,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,43</t>
+          <t>-2,92; 0,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,42</t>
+          <t>-2,55; 1,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; -0,57</t>
+          <t>-3,25; -0,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,13</t>
+          <t>-2,67; 0,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,72</t>
+          <t>-2,78; 0,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; -0,63</t>
+          <t>-2,76; -0,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,12</t>
+          <t>-2,4; -0,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,43</t>
+          <t>-2,01; 0,47</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 3,12</t>
+          <t>-80,53; 6,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,04; 32,2</t>
+          <t>-77,5; 41,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 88,94</t>
+          <t>-68,82; 93,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-91,59; -25,81</t>
+          <t>-89,71; -17,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,56; 14,85</t>
+          <t>-75,84; 23,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,33; 40,75</t>
+          <t>-71,4; 43,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,23; -25,8</t>
+          <t>-79,62; -25,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-70,15; -3,63</t>
+          <t>-69,72; -1,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 20,63</t>
+          <t>-59,41; 25,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,31</t>
+          <t>-2,68; -0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; -0,55</t>
+          <t>-2,85; -0,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,0</t>
+          <t>-1,7; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,05</t>
+          <t>-1,54; 0,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; -0,34</t>
+          <t>-2,48; -0,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; -0,72</t>
+          <t>-2,67; -0,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,06</t>
+          <t>-1,61; 0,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; -0,77</t>
+          <t>-2,28; -0,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; -0,26</t>
+          <t>-1,94; -0,25</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,41; -14,04</t>
+          <t>-91,16; -19,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,25; -26,63</t>
+          <t>-91,25; -32,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 77,83</t>
+          <t>-60,86; 58,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 65,57</t>
+          <t>-53,0; 68,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-84,27; -15,94</t>
+          <t>-83,93; -11,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,95; -37,32</t>
+          <t>-88,46; -43,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 4,84</t>
+          <t>-61,15; 7,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,01; -42,02</t>
+          <t>-82,23; -37,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -14,15</t>
+          <t>-70,07; -4,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,23</t>
+          <t>-1,02; 0,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; -0,16</t>
+          <t>-1,37; -0,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,61</t>
+          <t>-0,79; 0,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,54</t>
+          <t>-0,67; 0,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,05</t>
+          <t>-1,09; 0,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 0,35</t>
+          <t>-0,86; 0,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,22</t>
+          <t>-0,69; 0,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; -0,28</t>
+          <t>-1,07; -0,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,32</t>
+          <t>-0,58; 0,32</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 19,67</t>
+          <t>-49,18; 13,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-68,28; -11,51</t>
+          <t>-66,82; -12,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,87; 45,46</t>
+          <t>-40,09; 41,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 40,05</t>
+          <t>-34,32; 38,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 3,57</t>
+          <t>-54,64; 3,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 26,97</t>
+          <t>-43,02; 24,5</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 15,21</t>
+          <t>-34,99; 13,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,67; -18,33</t>
+          <t>-55,98; -18,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 20,27</t>
+          <t>-30,69; 21,06</t>
         </is>
       </c>
     </row>
